--- a/FINALFIGS/5_RandomForestCirclize/battr/Miura2006haplotypes_haps.xlsx
+++ b/FINALFIGS/5_RandomForestCirclize/battr/Miura2006haplotypes_haps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sotkae/Dropbox/Documents/Publications/CURRENT/gigas-popgen/popgen-OysterAssociates/Batillaria attramentaria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sotkae/Dropbox/Documents/Publications/CURRENT/gigas-popgen/github/gigas-popgen/FINALFIGS/5_RandomForestCirclize/battr_HL1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBED62C-1786-8D43-A39A-4AAD0330E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB3D92-0B99-E042-8ACF-8D351D8AB496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{DAA6121C-3FB3-4FD0-9EC7-53FD0651CBC8}"/>
   </bookViews>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Hiroshma</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Ariake</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -616,6 +612,9 @@
   </si>
   <si>
     <t>DQ366497</t>
+  </si>
+  <si>
+    <t>Hiroshima</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1019,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1034,7 +1033,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1073,28 +1072,28 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="16">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1137,7 +1136,7 @@
     </row>
     <row r="3" spans="1:22" ht="16">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1162,7 +1161,7 @@
     </row>
     <row r="4" spans="1:22" ht="16">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1189,7 +1188,7 @@
     </row>
     <row r="5" spans="1:22" ht="16">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1214,7 +1213,7 @@
     </row>
     <row r="6" spans="1:22" ht="16">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1247,7 +1246,7 @@
     </row>
     <row r="7" spans="1:22" ht="16">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1272,7 +1271,7 @@
     </row>
     <row r="8" spans="1:22" ht="16">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1297,7 +1296,7 @@
     </row>
     <row r="9" spans="1:22" ht="16">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1322,7 +1321,7 @@
     </row>
     <row r="10" spans="1:22" ht="16">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1347,7 +1346,7 @@
     </row>
     <row r="11" spans="1:22" ht="16">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1374,7 +1373,7 @@
     </row>
     <row r="12" spans="1:22" ht="16">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1399,7 +1398,7 @@
     </row>
     <row r="13" spans="1:22" ht="16">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1430,7 +1429,7 @@
     </row>
     <row r="14" spans="1:22" ht="16">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1455,7 +1454,7 @@
     </row>
     <row r="15" spans="1:22" ht="16">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1480,7 +1479,7 @@
     </row>
     <row r="16" spans="1:22" ht="16">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1505,7 +1504,7 @@
     </row>
     <row r="17" spans="1:19" ht="16">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
@@ -1534,7 +1533,7 @@
     </row>
     <row r="18" spans="1:19" ht="16">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -1561,7 +1560,7 @@
     </row>
     <row r="19" spans="1:19" ht="16">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -1586,7 +1585,7 @@
     </row>
     <row r="20" spans="1:19" ht="16">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1611,7 +1610,7 @@
     </row>
     <row r="21" spans="1:19" ht="16">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1636,7 +1635,7 @@
     </row>
     <row r="22" spans="1:19" ht="16">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1661,7 +1660,7 @@
     </row>
     <row r="23" spans="1:19" ht="16">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1686,7 +1685,7 @@
     </row>
     <row r="24" spans="1:19" ht="16">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1726,7 +1725,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="16"/>
@@ -1943,7 +1942,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1979,27 +1978,27 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2033,7 +2032,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2057,7 +2056,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2107,7 +2106,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2133,7 +2132,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2159,7 +2158,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2183,7 +2182,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2209,7 +2208,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2249,7 +2248,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2273,7 +2272,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2301,7 +2300,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2327,7 +2326,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2351,7 +2350,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2383,7 +2382,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2407,7 +2406,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2431,7 +2430,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2455,7 +2454,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2479,7 +2478,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2503,7 +2502,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2527,7 +2526,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2553,7 +2552,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2583,7 +2582,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2609,7 +2608,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2637,7 +2636,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2663,7 +2662,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2691,7 +2690,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2721,7 +2720,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2745,7 +2744,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2769,7 +2768,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2793,7 +2792,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2819,7 +2818,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2843,7 +2842,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2867,7 +2866,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2891,7 +2890,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2917,7 +2916,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2941,7 +2940,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2965,7 +2964,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2989,7 +2988,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3013,7 +3012,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3037,7 +3036,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3061,7 +3060,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3085,7 +3084,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3109,7 +3108,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3142,7 +3141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F793C498-0F72-43CE-A63F-73F599CED264}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16"/>
   <cols>
@@ -3279,7 +3280,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3315,27 +3316,27 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3359,7 +3360,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3383,7 +3384,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3409,7 +3410,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3435,7 +3436,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -3485,7 +3486,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3511,7 +3512,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3535,7 +3536,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3559,7 +3560,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -3585,7 +3586,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -3609,7 +3610,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3635,7 +3636,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3659,7 +3660,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3683,7 +3684,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3709,7 +3710,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3733,7 +3734,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -3757,7 +3758,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3785,7 +3786,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3809,7 +3810,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3833,7 +3834,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3857,7 +3858,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3883,7 +3884,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3907,7 +3908,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3955,7 +3956,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4015,7 +4016,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4043,7 +4044,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4067,7 +4068,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4091,7 +4092,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4121,7 +4122,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -4145,7 +4146,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4171,7 +4172,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4197,7 +4198,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4221,7 +4222,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4271,7 +4272,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4319,7 +4320,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4375,7 +4376,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4399,7 +4400,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4423,7 +4424,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4449,7 +4450,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4473,7 +4474,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4497,7 +4498,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4521,7 +4522,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4571,7 +4572,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4595,7 +4596,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4627,7 +4628,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4651,7 +4652,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4675,7 +4676,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4699,7 +4700,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4723,7 +4724,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4775,7 +4776,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4799,7 +4800,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4823,7 +4824,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4847,7 +4848,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4871,7 +4872,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4897,7 +4898,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4921,7 +4922,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4969,7 +4970,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4993,7 +4994,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5021,7 +5022,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5045,7 +5046,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5069,7 +5070,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5095,7 +5096,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5143,7 +5144,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5167,7 +5168,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5191,7 +5192,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5215,7 +5216,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5239,7 +5240,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5263,7 +5264,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5289,7 +5290,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5313,7 +5314,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5337,7 +5338,7 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5361,7 +5362,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5385,7 +5386,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5409,7 +5410,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5433,7 +5434,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5457,7 +5458,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5481,7 +5482,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5505,7 +5506,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5529,7 +5530,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5553,7 +5554,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5577,7 +5578,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5601,7 +5602,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5625,7 +5626,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5649,7 +5650,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
